--- a/Online retail.xlsx
+++ b/Online retail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vinod shared Assignemnts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ved Patil\Downloads\Association Rules\Association Rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{144FFCE5-F09C-4ED8-BD1B-D9E1D30D4F32}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0CDD2B-FC93-4450-B0D0-CFA7C5115914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4920" xr2:uid="{E7608099-6B0B-42C7-B7EF-E5641B5BDE6E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E7608099-6B0B-42C7-B7EF-E5641B5BDE6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15907,7 +15907,7 @@
   <dimension ref="A1:A7501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7501" sqref="A7501:XFD7501"/>
+      <selection activeCell="A7501" sqref="A7501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
